--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3784514.049245992</v>
+        <v>3892388.312061815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498513</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7381473.162562463</v>
+        <v>7351937.087278121</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>308.7927695818585</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>234.5956013770942</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.005783406000254</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>126.6961621387667</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>157.9206545937571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.3360745058923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.94759242184583</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>117.1304564133545</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>214.3411264127414</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222606</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>5.06550597259165</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5387876667482</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.55695577161508</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.2350264383957</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695513</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.67756722603354</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>210.595062677237</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144416</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189445</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>134.1795292011421</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428533</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>156.2179706626111</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>72.57619040703456</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6346102953157</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>49.33251894258945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>100.7362831624781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>197.5531614304986</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>108.3764982651491</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>70.58974991479261</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>7.602497644399286</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>192.9787615936019</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.902695549579</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.902695549579</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>1114.902695549579</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1114.902695549579</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>703.916790759971</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>288.2120404842599</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1171.597178657686</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4403,10 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4416,19 +4418,19 @@
         <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.8852429786114</v>
+        <v>518.0825382046747</v>
       </c>
       <c r="C4" t="n">
-        <v>515.8852429786114</v>
+        <v>518.0825382046747</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786114</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1508.470198722208</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1219.351861226046</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>964.6673730201588</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>964.6673730201588</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X4" t="n">
-        <v>736.6778221221415</v>
+        <v>699.7310030349145</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.8852429786114</v>
+        <v>699.7310030349145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>877.9374416333219</v>
+        <v>1454.537269016652</v>
       </c>
       <c r="C5" t="n">
-        <v>877.9374416333219</v>
+        <v>1085.57475207624</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>1085.57475207624</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>699.7864994779961</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>288.8005946883886</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>277.1362484530815</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.9374416333219</v>
+        <v>1841.137109080774</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034346</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844846</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159563</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751764</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.4439942939401</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>354.4439942939401</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374703</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939401</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1739.316620925522</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1631.32944737491</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1631.32944737491</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.758244717992</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="V10" t="n">
-        <v>1366.073756512105</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.656586475145</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="X10" t="n">
-        <v>848.6670355771272</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="Y10" t="n">
-        <v>627.8744564335971</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311358</v>
+        <v>801.6605733532804</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032291</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908935</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2404.98636057863</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2404.98636057863</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T13" t="n">
-        <v>2185.384895601572</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U13" t="n">
-        <v>1896.30966894577</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739883</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702922</v>
+        <v>1432.091168225068</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804905</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613753</v>
+        <v>983.3090381835201</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5306,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647309</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C16" t="n">
-        <v>800.5007694647309</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232828</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.70124434089</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429797</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579365</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373478</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336517</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.9418134385</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949704</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168633</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362709</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,22 +5545,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876722</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597655</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474299</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E19" t="n">
-        <v>113.933388565037</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>371.0633721867255</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614416</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179117</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400746</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121679</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330918</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330918</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2222.121449870429</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2002.519984893371</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1713.444758237568</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648822</v>
+        <v>1458.760270031681</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713844</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703141</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2823.935653491667</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C25" t="n">
-        <v>2654.99947056376</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.882831151424</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E25" t="n">
-        <v>2504.882831151424</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3998.467906606301</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3743.783418400414</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3454.366248363453</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>3226.376697465436</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>3005.584118321906</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2977.325134535463</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C28" t="n">
-        <v>2977.325134535463</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>2977.325134535463</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3158.973599365703</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>1997.513897577973</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7493,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
         <v>1577.52840832642</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2372.238089282765</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7670,13 +7672,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>199.7516311504061</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883062271</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>70.03064962107806</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>105.1672460959146</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.81829093850644</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>127.9379057921786</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>41.54258064659101</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610366</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>31.3446090911267</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409392686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>24.80831533903347</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>73.85777223953461</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.54986409392825</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>45.69767948409111</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>19.85228889678962</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.4237883572453</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>59.15888173022611</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642406.811294943</v>
+        <v>648348.7387960138</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631638.0544098782</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642406.811294943</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>642406.811294943</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642406.811294943</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642406.811294943</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642406.811294943</v>
+        <v>631638.0544098779</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176766</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176759</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176757</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977563</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-11</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26423,40 @@
         <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805864</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707517</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707408</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707406</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707421</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14888.28375980084</v>
-      </c>
       <c r="L4" t="n">
-        <v>14888.28375980083</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980082</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980083</v>
+        <v>6897.42449670733</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539083.5572297133</v>
+        <v>-539083.5572297134</v>
       </c>
       <c r="C6" t="n">
         <v>575668.2263462071</v>
       </c>
       <c r="D6" t="n">
-        <v>413870.1853478861</v>
+        <v>575668.2263462071</v>
       </c>
       <c r="E6" t="n">
-        <v>353535.5185697862</v>
+        <v>171462.5387525958</v>
       </c>
       <c r="F6" t="n">
-        <v>678947.9803771409</v>
+        <v>678947.9803771415</v>
       </c>
       <c r="G6" t="n">
         <v>678947.9803771414</v>
       </c>
       <c r="H6" t="n">
+        <v>678947.980377141</v>
+      </c>
+      <c r="I6" t="n">
         <v>678947.9803771412</v>
-      </c>
-      <c r="I6" t="n">
-        <v>678947.9803771414</v>
       </c>
       <c r="J6" t="n">
         <v>511342.8025671587</v>
       </c>
       <c r="K6" t="n">
-        <v>663035.6080103292</v>
+        <v>678947.9803771415</v>
       </c>
       <c r="L6" t="n">
-        <v>634169.3559957689</v>
+        <v>678947.9803771413</v>
       </c>
       <c r="M6" t="n">
-        <v>597408.2980684477</v>
+        <v>546340.6866482149</v>
       </c>
       <c r="N6" t="n">
-        <v>682463.326003961</v>
+        <v>678947.9803771413</v>
       </c>
       <c r="O6" t="n">
-        <v>682463.3260039608</v>
+        <v>678947.9803771416</v>
       </c>
       <c r="P6" t="n">
-        <v>678947.9803771419</v>
+        <v>678947.9803771413</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26926,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>73.94107208162205</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>66.42295118531118</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.6096896122121</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,16 +27587,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.05253385844529</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>143.0978979686483</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.9018641501613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>98.66788059636653</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>169.3925419232365</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>167.5892436595204</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194509</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>189.5969543891458</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67305053886469</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.524471039650627e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32089,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,19 +33025,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>730.8697159579444</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33740,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>388.5140139297707</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093987</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432801</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>505.5216991696269</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922368</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,16 +35023,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>436.9619819031186</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>440.5919280920377</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>588.7356820359261</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>245.9177694853263</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3892388.312061815</v>
+        <v>3888251.154811663</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.7927695818585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>4.1402141731355</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>4.005783406000254</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>170.7687666635491</v>
       </c>
       <c r="H5" t="n">
-        <v>157.9206545937571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>117.1304564133545</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>97.42673987134106</v>
       </c>
       <c r="E8" t="n">
-        <v>214.3411264127414</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667401</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>5.06550597259165</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>46.15319674220954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>148.2350264383957</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>210.595062677237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1795292011421</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>156.2179706626111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>72.57619040703456</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.33251894258945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3003,19 +3003,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>197.5531614304986</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.3764982651491</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>70.58974991479261</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>7.602497644399286</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>192.9787615936019</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>859.685290191162</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>859.685290191162</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
         <v>859.685290191162</v>
@@ -4330,52 +4330,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2558.157293881837</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2304.576233146016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657686</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.597178657686</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114679</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.0825382046747</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>518.0825382046747</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329318</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7205539329318</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>699.7310030349145</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.7310030349145</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1454.537269016652</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>1085.57475207624</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="D5" t="n">
-        <v>1085.57475207624</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="E5" t="n">
-        <v>699.7864994779961</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="F5" t="n">
-        <v>288.8005946883886</v>
+        <v>290.1141394326693</v>
       </c>
       <c r="G5" t="n">
-        <v>277.1362484530815</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056586</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056586</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.137109080774</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.614745646621</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.9856847044969</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>199.9856847044969</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>648.7678147460443</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>420.778263848027</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.9856847044969</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="D8" t="n">
-        <v>690.4032258886161</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925522</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.770065904978</v>
+        <v>172.7955294637002</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1631.32944737491</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1631.32944737491</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1342.211109878748</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1342.211109878748</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1342.211109878748</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="X10" t="n">
-        <v>1342.211109878748</v>
+        <v>575.23657343747</v>
       </c>
       <c r="Y10" t="n">
-        <v>1121.418530735218</v>
+        <v>354.4439942939399</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,13 +5074,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532804</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253735</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253735</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2230.185029894889</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2010.58356491783</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.508338262028</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225068</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835201</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.8158034133954</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.663568322143</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.246398285183</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>958.2568473871653</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4642682436352</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>815.9830526793647</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>665.866413267029</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>517.9533196846359</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>371.0633721867255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2222.121449870429</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2002.519984893371</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.444758237568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.760270031681</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.343099994721</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511906</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1024.063349920562</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C25" t="n">
-        <v>855.1271669926552</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>705.0105275803195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.711814750802</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1997.513897577973</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1708.43867092217</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1708.43867092217</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6767,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6958,16 +6958,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7025,19 +7025,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.759767795858</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.684541140056</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.000052934169</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1292.582882897208</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2372.238089282765</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2152.636624305706</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1863.561397649904</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1608.876909444017</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1319.459739407056</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407056</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.8421700460946</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>70.03064962107806</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>105.1672460959146</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>32.79125956324884</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>41.54258064659101</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>31.3446090911267</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>24.80831533903347</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>73.85777223953461</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.2389747530633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.4237883572453</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>59.15888173022611</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631638.0544098779</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="F2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977561</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.250528837155401e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707321</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707421</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707443</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670733</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539083.5572297134</v>
+        <v>-539083.5572297128</v>
       </c>
       <c r="C6" t="n">
-        <v>575668.2263462071</v>
+        <v>575668.2263462063</v>
       </c>
       <c r="D6" t="n">
-        <v>575668.2263462071</v>
+        <v>575668.2263462067</v>
       </c>
       <c r="E6" t="n">
-        <v>171462.5387525958</v>
+        <v>171115.159498239</v>
       </c>
       <c r="F6" t="n">
-        <v>678947.9803771415</v>
+        <v>678600.6011227845</v>
       </c>
       <c r="G6" t="n">
-        <v>678947.9803771414</v>
+        <v>678600.601122784</v>
       </c>
       <c r="H6" t="n">
-        <v>678947.980377141</v>
+        <v>678600.6011227848</v>
       </c>
       <c r="I6" t="n">
-        <v>678947.9803771412</v>
+        <v>678600.6011227843</v>
       </c>
       <c r="J6" t="n">
-        <v>511342.8025671587</v>
+        <v>510995.4233128021</v>
       </c>
       <c r="K6" t="n">
-        <v>678947.9803771415</v>
+        <v>678600.6011227844</v>
       </c>
       <c r="L6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227845</v>
       </c>
       <c r="M6" t="n">
-        <v>546340.6866482149</v>
+        <v>545993.3073938577</v>
       </c>
       <c r="N6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227844</v>
       </c>
       <c r="O6" t="n">
-        <v>678947.9803771416</v>
+        <v>678600.6011227848</v>
       </c>
       <c r="P6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227842</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.94107208162205</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>202.5179708070983</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6096896122121</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>240.7789361094049</v>
       </c>
       <c r="H5" t="n">
-        <v>143.0978979686483</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>169.3925419232365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>257.2563017493419</v>
       </c>
       <c r="E8" t="n">
-        <v>167.5892436595204</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.91356563188771</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.5969543891458</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.524471039650627e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.68896825005964e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>485.1127032082914</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>424.0909547148531</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>186.6878763515707</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>730.8697159579444</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33745,10 +33745,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N36" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33760,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>388.5140139297707</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457287</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093987</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5216991696269</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>436.9619819031186</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000391</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>440.5919280920377</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>342.516458763847</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>281.4947102704086</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>44.0916319071262</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>588.7356820359261</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N36" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37408,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>245.9177694853263</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3888251.154811663</v>
+        <v>3890011.68511445</v>
       </c>
     </row>
     <row r="7">
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.1402141731355</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4748271731357</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7687666635491</v>
+        <v>306.3682789569933</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542791</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>97.42673987134106</v>
+        <v>163.1366525438133</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206811</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>46.15319674220954</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>30.97191586387568</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>196.7867454260345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>273.8348290426799</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4330,19 +4330,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4360,19 +4360,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2558.157293881837</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2304.576233146016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1973.513345802446</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1973.513345802446</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1973.513345802446</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y2" t="n">
         <v>1973.513345802446</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>725.9208939613241</v>
       </c>
       <c r="C5" t="n">
-        <v>1059.365742829027</v>
+        <v>725.9208939613241</v>
       </c>
       <c r="D5" t="n">
-        <v>701.1000442222769</v>
+        <v>367.6551953545736</v>
       </c>
       <c r="E5" t="n">
-        <v>701.1000442222769</v>
+        <v>367.6551953545736</v>
       </c>
       <c r="F5" t="n">
-        <v>290.1141394326693</v>
+        <v>360.7096946053701</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1502.660066001258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1112.520734025446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603.6036480119269</v>
+        <v>603.6036480119287</v>
       </c>
       <c r="C8" t="n">
-        <v>234.6411310715152</v>
+        <v>234.641131071517</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.34282005186</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760486</v>
+        <v>990.2034880760505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637002</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354874</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>575.23657343747</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939399</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>282.1478848544703</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4360536966684</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,16 +5363,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.678320081396</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5840,10 +5840,10 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,19 +6715,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6767,16 +6767,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6849,22 +6849,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7259,13 +7259,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,16 +7730,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>138.9393975111064</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>35.40333084624601</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>20.61870490125375</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>12.68816929391107</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707441</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707412</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26441,25 +26441,25 @@
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707421</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707443</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-539083.5572297128</v>
       </c>
       <c r="C6" t="n">
-        <v>575668.2263462063</v>
+        <v>575668.2263462073</v>
       </c>
       <c r="D6" t="n">
-        <v>575668.2263462067</v>
+        <v>575668.2263462069</v>
       </c>
       <c r="E6" t="n">
-        <v>171115.159498239</v>
+        <v>171427.8008271602</v>
       </c>
       <c r="F6" t="n">
-        <v>678600.6011227845</v>
+        <v>678913.2424517054</v>
       </c>
       <c r="G6" t="n">
-        <v>678600.601122784</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="H6" t="n">
-        <v>678600.6011227848</v>
+        <v>678913.2424517056</v>
       </c>
       <c r="I6" t="n">
-        <v>678600.6011227843</v>
+        <v>678913.2424517056</v>
       </c>
       <c r="J6" t="n">
-        <v>510995.4233128021</v>
+        <v>511308.0646417231</v>
       </c>
       <c r="K6" t="n">
-        <v>678600.6011227844</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="L6" t="n">
-        <v>678600.6011227845</v>
+        <v>678913.2424517056</v>
       </c>
       <c r="M6" t="n">
-        <v>545993.3073938577</v>
+        <v>546305.9487227791</v>
       </c>
       <c r="N6" t="n">
-        <v>678600.6011227844</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="O6" t="n">
-        <v>678600.6011227848</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="P6" t="n">
-        <v>678600.6011227842</v>
+        <v>678913.2424517057</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>202.5179708070983</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4.109826178959082</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>240.7789361094049</v>
+        <v>105.1794238159607</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193755</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>257.2563017493419</v>
+        <v>191.5463890768697</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188771</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.68896825005964e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.151048605089304e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>163.1438255932938</v>
@@ -32335,19 +32335,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457287</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>521.8736946105082</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>388.6189266346388</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>20.54758114884936</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
